--- a/data/trans_orig/P16A04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCB9ACB2-23AB-4BF6-A5FC-346187A7B964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F62DF50-9823-4A19-A5D3-C0FD04B02DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{69E5CC53-7F30-464A-A4C5-CC6CF4E2A362}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6E91F9BB-6D30-43B7-BDE7-35CBB78B0F78}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="370">
   <si>
     <t>Población que ha consumido antibióticos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -86,1027 +86,1069 @@
     <t>1,52%</t>
   </si>
   <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
     <t>5,13%</t>
   </si>
   <si>
-    <t>0,75%</t>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
+    <t>94,6%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
   </si>
   <si>
     <t>97,59%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0E9509-715E-4D8B-BAA5-C92053BEE454}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23DD479-6918-4715-9314-C139F21EDAC7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2280,10 +2322,10 @@
         <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -2292,13 +2334,13 @@
         <v>36406</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,13 +2355,13 @@
         <v>925229</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>978</v>
@@ -2328,13 +2370,13 @@
         <v>1019199</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>1953</v>
@@ -2343,13 +2385,13 @@
         <v>1944428</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,13 +2459,13 @@
         <v>58663</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>74</v>
@@ -2432,13 +2474,13 @@
         <v>74790</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>133</v>
@@ -2447,13 +2489,13 @@
         <v>133452</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,16 +2507,16 @@
         <v>3154</v>
       </c>
       <c r="D20" s="7">
-        <v>3216862</v>
+        <v>3216863</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>3223</v>
@@ -2483,28 +2525,28 @@
         <v>3304408</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>6377</v>
       </c>
       <c r="N20" s="7">
-        <v>6521270</v>
+        <v>6521271</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,7 +2558,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -2546,7 +2588,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -2560,7 +2602,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2581,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AB9E74-97E9-41FD-96CA-078D405BEA4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4871478E-F01E-4922-A16E-100322F51A40}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2598,7 +2640,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2705,13 +2747,13 @@
         <v>2733</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2720,13 +2762,13 @@
         <v>1979</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2735,13 +2777,13 @@
         <v>4712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,7 +2798,7 @@
         <v>112217</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>126</v>
@@ -2863,10 +2905,10 @@
         <v>132</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -2875,13 +2917,13 @@
         <v>18269</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -2890,13 +2932,13 @@
         <v>41473</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +2953,13 @@
         <v>562610</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="H8" s="7">
         <v>531</v>
@@ -2926,28 +2968,28 @@
         <v>563177</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="M8" s="7">
         <v>1062</v>
       </c>
       <c r="N8" s="7">
-        <v>1125786</v>
+        <v>1125787</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,7 +3031,7 @@
         <v>1098</v>
       </c>
       <c r="N9" s="7">
-        <v>1167259</v>
+        <v>1167260</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>21</v>
@@ -3015,13 +3057,13 @@
         <v>31418</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -3030,13 +3072,13 @@
         <v>42955</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>64</v>
@@ -3045,13 +3087,13 @@
         <v>74373</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +3108,13 @@
         <v>984338</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
         <v>898</v>
@@ -3081,13 +3123,13 @@
         <v>984865</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>1807</v>
@@ -3096,13 +3138,13 @@
         <v>1969202</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,13 +3212,13 @@
         <v>21066</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3185,13 +3227,13 @@
         <v>11291</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -3200,13 +3242,13 @@
         <v>32356</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3263,13 @@
         <v>735472</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>694</v>
@@ -3236,13 +3278,13 @@
         <v>764992</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>1363</v>
@@ -3251,13 +3293,13 @@
         <v>1500465</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,13 +3367,13 @@
         <v>18384</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -3340,10 +3382,10 @@
         <v>26824</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>68</v>
@@ -3361,7 +3403,7 @@
         <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>173</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3433,13 @@
         <v>1021939</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="M17" s="7">
         <v>1864</v>
@@ -3406,13 +3448,13 @@
         <v>1946601</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>181</v>
+        <v>59</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,13 +3522,13 @@
         <v>96805</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -3495,13 +3537,13 @@
         <v>101318</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M19" s="7">
         <v>176</v>
@@ -3510,13 +3552,13 @@
         <v>198123</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,16 +3570,16 @@
         <v>3117</v>
       </c>
       <c r="D20" s="7">
-        <v>3319297</v>
+        <v>3319298</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H20" s="7">
         <v>3194</v>
@@ -3546,13 +3588,13 @@
         <v>3444899</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M20" s="7">
         <v>6311</v>
@@ -3561,13 +3603,13 @@
         <v>6764197</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>206</v>
+        <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>37</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,7 +3621,7 @@
         <v>3200</v>
       </c>
       <c r="D21" s="7">
-        <v>3416102</v>
+        <v>3416103</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -3623,7 +3665,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3644,7 +3686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B23D84-852D-4511-840C-2FBDDD713B80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03E1571-8F9D-4EB2-B3B9-C04DE593B23E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3661,7 +3703,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3768,13 +3810,13 @@
         <v>4935</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3783,13 +3825,13 @@
         <v>962</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3798,13 +3840,13 @@
         <v>5897</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,13 +3861,13 @@
         <v>111611</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="H5" s="7">
         <v>114</v>
@@ -3834,10 +3876,10 @@
         <v>112398</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3849,13 +3891,13 @@
         <v>224009</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,13 +3965,13 @@
         <v>7292</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -3938,13 +3980,13 @@
         <v>14068</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -3956,10 +3998,10 @@
         <v>49</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +4016,13 @@
         <v>550962</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="H8" s="7">
         <v>537</v>
@@ -3989,13 +4031,13 @@
         <v>545411</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="M8" s="7">
         <v>1070</v>
@@ -4007,10 +4049,10 @@
         <v>58</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4120,13 @@
         <v>19715</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -4093,13 +4135,13 @@
         <v>23014</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -4108,13 +4150,13 @@
         <v>42729</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4171,13 @@
         <v>1002716</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="H11" s="7">
         <v>955</v>
@@ -4144,13 +4186,13 @@
         <v>1019899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M11" s="7">
         <v>1887</v>
@@ -4159,13 +4201,13 @@
         <v>2022615</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>22</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,10 +4278,10 @@
         <v>27</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>244</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -4251,10 +4293,10 @@
         <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -4263,13 +4305,13 @@
         <v>24960</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>118</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,10 +4329,10 @@
         <v>36</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>249</v>
+        <v>100</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="H14" s="7">
         <v>724</v>
@@ -4302,10 +4344,10 @@
         <v>58</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
         <v>1411</v>
@@ -4314,13 +4356,13 @@
         <v>1519603</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>125</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4430,13 @@
         <v>27188</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -4403,13 +4445,13 @@
         <v>26964</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>104</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>258</v>
+        <v>68</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -4418,13 +4460,13 @@
         <v>54152</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>137</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4481,13 @@
         <v>910379</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>187</v>
+        <v>275</v>
       </c>
       <c r="H17" s="7">
         <v>935</v>
@@ -4454,13 +4496,13 @@
         <v>1016815</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>277</v>
       </c>
       <c r="M17" s="7">
         <v>1841</v>
@@ -4469,13 +4511,13 @@
         <v>1927194</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>145</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4585,13 @@
         <v>69134</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -4558,13 +4600,13 @@
         <v>79964</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="M19" s="7">
         <v>138</v>
@@ -4573,13 +4615,13 @@
         <v>149098</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>46</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4636,13 @@
         <v>3325216</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="H20" s="7">
         <v>3265</v>
@@ -4609,13 +4651,13 @@
         <v>3464578</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>6431</v>
@@ -4624,13 +4666,13 @@
         <v>6789794</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>55</v>
+        <v>293</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,7 +4728,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4707,7 +4749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FF856B-B96B-4C84-8C47-7553F9B049D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307991A3-DAB3-468D-A020-0B0297CA0D46}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4724,7 +4766,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4831,13 +4873,13 @@
         <v>3315</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4846,13 +4888,13 @@
         <v>3433</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>17</v>
+        <v>299</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>70</v>
+        <v>301</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -4861,13 +4903,13 @@
         <v>6748</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,13 +4924,13 @@
         <v>98667</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>304</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="H5" s="7">
         <v>235</v>
@@ -4897,13 +4939,13 @@
         <v>126943</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>25</v>
+        <v>307</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>60</v>
+        <v>309</v>
       </c>
       <c r="M5" s="7">
         <v>349</v>
@@ -4912,13 +4954,13 @@
         <v>225610</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,13 +5028,13 @@
         <v>9444</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>288</v>
+        <v>106</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>289</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>199</v>
+        <v>296</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5004,10 +5046,10 @@
         <v>52</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -5016,13 +5058,13 @@
         <v>22813</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>155</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +5079,13 @@
         <v>539858</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>207</v>
+        <v>304</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>295</v>
+        <v>221</v>
       </c>
       <c r="H8" s="7">
         <v>971</v>
@@ -5055,10 +5097,10 @@
         <v>61</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="M8" s="7">
         <v>1570</v>
@@ -5067,13 +5109,13 @@
         <v>1119451</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>165</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,13 +5183,13 @@
         <v>21854</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>300</v>
+        <v>145</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>301</v>
+        <v>242</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -5156,13 +5198,13 @@
         <v>31583</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -5171,13 +5213,13 @@
         <v>53437</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,13 +5234,13 @@
         <v>1017394</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>307</v>
+        <v>155</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>309</v>
+        <v>248</v>
       </c>
       <c r="H11" s="7">
         <v>1470</v>
@@ -5207,13 +5249,13 @@
         <v>1027891</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="M11" s="7">
         <v>2412</v>
@@ -5222,13 +5264,13 @@
         <v>2045285</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5338,13 @@
         <v>17976</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -5311,13 +5353,13 @@
         <v>23136</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>333</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -5326,13 +5368,13 @@
         <v>41112</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5389,13 @@
         <v>709725</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="H14" s="7">
         <v>1008</v>
@@ -5362,13 +5404,13 @@
         <v>850610</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>341</v>
       </c>
       <c r="M14" s="7">
         <v>1667</v>
@@ -5377,13 +5419,13 @@
         <v>1560335</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5493,13 @@
         <v>26007</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>325</v>
+        <v>72</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="H16" s="7">
         <v>63</v>
@@ -5466,13 +5508,13 @@
         <v>51055</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="M16" s="7">
         <v>91</v>
@@ -5481,13 +5523,13 @@
         <v>77061</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>331</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5544,13 @@
         <v>939396</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>335</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>1496</v>
@@ -5517,13 +5559,13 @@
         <v>1095248</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="M17" s="7">
         <v>2474</v>
@@ -5532,13 +5574,13 @@
         <v>2034645</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>341</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,13 +5648,13 @@
         <v>78595</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>13</v>
+        <v>359</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="H19" s="7">
         <v>179</v>
@@ -5621,13 +5663,13 @@
         <v>122576</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M19" s="7">
         <v>261</v>
@@ -5636,13 +5678,13 @@
         <v>201171</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>363</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>348</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,16 +5696,16 @@
         <v>3292</v>
       </c>
       <c r="D20" s="7">
-        <v>3305041</v>
+        <v>3305042</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>20</v>
+        <v>366</v>
       </c>
       <c r="H20" s="7">
         <v>5180</v>
@@ -5672,13 +5714,13 @@
         <v>3680286</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>352</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="M20" s="7">
         <v>8472</v>
@@ -5687,13 +5729,13 @@
         <v>6985327</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>355</v>
+        <v>208</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,7 +5747,7 @@
         <v>3374</v>
       </c>
       <c r="D21" s="7">
-        <v>3383636</v>
+        <v>3383637</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -5749,7 +5791,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A04-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F62DF50-9823-4A19-A5D3-C0FD04B02DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22649345-F213-42DE-BEB4-1DC3F27A424C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6E91F9BB-6D30-43B7-BDE7-35CBB78B0F78}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2B9530E3-6B24-4417-BA06-60AE3572B97A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="350">
   <si>
     <t>Población que ha consumido antibióticos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -86,1066 +86,1006 @@
     <t>1,52%</t>
   </si>
   <si>
-    <t>5,35%</t>
+    <t>4,59%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>99,49%</t>
   </si>
   <si>
     <t>96,07%</t>
   </si>
   <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
   </si>
   <si>
     <t>98,17%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>97,12%</t>
   </si>
   <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
   </si>
   <si>
     <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
   </si>
   <si>
     <t>97,59%</t>
@@ -1560,7 +1500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23DD479-6918-4715-9314-C139F21EDAC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B13AD3-7F4F-4BD8-BF56-599314F4B7E3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2304,13 +2244,13 @@
         <v>16993</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -2319,13 +2259,13 @@
         <v>19413</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -2334,13 +2274,13 @@
         <v>36406</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,13 +2295,13 @@
         <v>925229</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>978</v>
@@ -2370,13 +2310,13 @@
         <v>1019199</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>1953</v>
@@ -2385,13 +2325,13 @@
         <v>1944428</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,13 +2399,13 @@
         <v>58663</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>74</v>
@@ -2474,13 +2414,13 @@
         <v>74790</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>133</v>
@@ -2489,13 +2429,13 @@
         <v>133452</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,16 +2447,16 @@
         <v>3154</v>
       </c>
       <c r="D20" s="7">
-        <v>3216863</v>
+        <v>3216862</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>3223</v>
@@ -2525,13 +2465,13 @@
         <v>3304408</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="M20" s="7">
         <v>6377</v>
@@ -2540,13 +2480,13 @@
         <v>6521271</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,7 +2498,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -2602,7 +2542,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +2563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4871478E-F01E-4922-A16E-100322F51A40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920A7F69-A35A-4DD6-A616-8ABBA6C34095}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2640,7 +2580,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2747,13 +2687,13 @@
         <v>2733</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2762,13 +2702,13 @@
         <v>1979</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2777,13 +2717,13 @@
         <v>4712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,10 +2738,10 @@
         <v>112217</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>76</v>
@@ -2813,10 +2753,10 @@
         <v>109926</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2828,13 +2768,13 @@
         <v>222143</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2842,13 @@
         <v>23204</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -2917,10 +2857,10 @@
         <v>18269</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>135</v>
@@ -2935,7 +2875,7 @@
         <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>137</v>
@@ -2959,7 +2899,7 @@
         <v>139</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="H8" s="7">
         <v>531</v>
@@ -2968,13 +2908,13 @@
         <v>563177</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="M8" s="7">
         <v>1062</v>
@@ -2983,13 +2923,13 @@
         <v>1125787</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +2997,13 @@
         <v>31418</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -3075,10 +3015,10 @@
         <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>64</v>
@@ -3087,13 +3027,13 @@
         <v>74373</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,28 +3048,28 @@
         <v>984338</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="H11" s="7">
         <v>898</v>
       </c>
       <c r="I11" s="7">
-        <v>984865</v>
+        <v>984864</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
         <v>1807</v>
@@ -3138,13 +3078,13 @@
         <v>1969202</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,7 +3111,7 @@
         <v>936</v>
       </c>
       <c r="I12" s="7">
-        <v>1027820</v>
+        <v>1027819</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>21</v>
@@ -3212,13 +3152,13 @@
         <v>21066</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3227,13 +3167,13 @@
         <v>11291</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -3242,13 +3182,13 @@
         <v>32356</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>170</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3203,13 @@
         <v>735472</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
         <v>694</v>
@@ -3278,13 +3218,13 @@
         <v>764992</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="M14" s="7">
         <v>1363</v>
@@ -3293,13 +3233,13 @@
         <v>1500465</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,13 +3307,13 @@
         <v>18384</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>181</v>
+        <v>50</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -3382,10 +3322,10 @@
         <v>26824</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>68</v>
@@ -3397,13 +3337,13 @@
         <v>45208</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>186</v>
+        <v>47</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3358,13 @@
         <v>924662</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
         <v>974</v>
@@ -3433,13 +3373,13 @@
         <v>1021939</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="M17" s="7">
         <v>1864</v>
@@ -3448,13 +3388,13 @@
         <v>1946601</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3462,13 @@
         <v>96805</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -3537,13 +3477,13 @@
         <v>101318</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="M19" s="7">
         <v>176</v>
@@ -3552,13 +3492,13 @@
         <v>198123</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,16 +3510,16 @@
         <v>3117</v>
       </c>
       <c r="D20" s="7">
-        <v>3319298</v>
+        <v>3319297</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="H20" s="7">
         <v>3194</v>
@@ -3588,28 +3528,28 @@
         <v>3444899</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="M20" s="7">
         <v>6311</v>
       </c>
       <c r="N20" s="7">
-        <v>6764197</v>
+        <v>6764196</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,7 +3561,7 @@
         <v>3200</v>
       </c>
       <c r="D21" s="7">
-        <v>3416103</v>
+        <v>3416102</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -3651,7 +3591,7 @@
         <v>6487</v>
       </c>
       <c r="N21" s="7">
-        <v>6962320</v>
+        <v>6962319</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -3665,7 +3605,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3686,7 +3626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03E1571-8F9D-4EB2-B3B9-C04DE593B23E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED3AC3E-4696-418C-9E0A-D54660666108}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3703,7 +3643,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3810,13 +3750,13 @@
         <v>4935</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>212</v>
+        <v>53</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3825,13 +3765,13 @@
         <v>962</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3840,13 +3780,13 @@
         <v>5897</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3801,13 @@
         <v>111611</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="H5" s="7">
         <v>114</v>
@@ -3876,10 +3816,10 @@
         <v>112398</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3891,13 +3831,13 @@
         <v>224009</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,13 +3905,13 @@
         <v>7292</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -3980,13 +3920,13 @@
         <v>14068</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>228</v>
+        <v>69</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -3998,10 +3938,10 @@
         <v>49</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +3956,13 @@
         <v>550962</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="H8" s="7">
         <v>537</v>
@@ -4031,13 +3971,13 @@
         <v>545411</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="M8" s="7">
         <v>1070</v>
@@ -4049,10 +3989,10 @@
         <v>58</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4060,13 @@
         <v>19715</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -4135,13 +4075,13 @@
         <v>23014</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -4150,13 +4090,13 @@
         <v>42729</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4111,13 @@
         <v>1002716</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
         <v>955</v>
@@ -4186,13 +4126,13 @@
         <v>1019899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="M11" s="7">
         <v>1887</v>
@@ -4201,13 +4141,13 @@
         <v>2022615</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>252</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,10 +4218,10 @@
         <v>27</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>92</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -4293,10 +4233,10 @@
         <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -4305,13 +4245,13 @@
         <v>24960</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,10 +4269,10 @@
         <v>36</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>100</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
         <v>724</v>
@@ -4344,10 +4284,10 @@
         <v>58</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="M14" s="7">
         <v>1411</v>
@@ -4356,13 +4296,13 @@
         <v>1519603</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,13 +4370,13 @@
         <v>27188</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>266</v>
+        <v>134</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -4445,13 +4385,13 @@
         <v>26964</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>68</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -4460,13 +4400,13 @@
         <v>54152</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,13 +4421,13 @@
         <v>910379</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>275</v>
+        <v>143</v>
       </c>
       <c r="H17" s="7">
         <v>935</v>
@@ -4496,13 +4436,13 @@
         <v>1016815</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="M17" s="7">
         <v>1841</v>
@@ -4511,13 +4451,13 @@
         <v>1927194</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,13 +4525,13 @@
         <v>69134</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -4600,13 +4540,13 @@
         <v>79964</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="M19" s="7">
         <v>138</v>
@@ -4615,13 +4555,13 @@
         <v>149098</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>286</v>
+        <v>158</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,13 +4576,13 @@
         <v>3325216</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="H20" s="7">
         <v>3265</v>
@@ -4651,13 +4591,13 @@
         <v>3464578</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>6431</v>
@@ -4666,13 +4606,13 @@
         <v>6789794</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>294</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,7 +4668,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4749,7 +4689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307991A3-DAB3-468D-A020-0B0297CA0D46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD03D53-DC41-4BF0-B0A9-934F9E3FCCE5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4766,7 +4706,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4873,13 +4813,13 @@
         <v>3315</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4888,13 +4828,13 @@
         <v>3433</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -4903,13 +4843,13 @@
         <v>6748</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,13 +4864,13 @@
         <v>98667</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="H5" s="7">
         <v>235</v>
@@ -4939,13 +4879,13 @@
         <v>126943</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>349</v>
@@ -4954,13 +4894,13 @@
         <v>225610</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +4968,13 @@
         <v>9444</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5046,10 +4986,10 @@
         <v>52</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -5058,13 +4998,13 @@
         <v>22813</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>314</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,13 +5019,13 @@
         <v>539858</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="H8" s="7">
         <v>971</v>
@@ -5097,10 +5037,10 @@
         <v>61</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="M8" s="7">
         <v>1570</v>
@@ -5109,13 +5049,13 @@
         <v>1119451</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>319</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5123,13 @@
         <v>21854</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>145</v>
+        <v>298</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -5198,13 +5138,13 @@
         <v>31583</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -5213,13 +5153,13 @@
         <v>53437</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>303</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,13 +5174,13 @@
         <v>1017394</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>155</v>
+        <v>306</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
       <c r="H11" s="7">
         <v>1470</v>
@@ -5249,13 +5189,13 @@
         <v>1027891</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="M11" s="7">
         <v>2412</v>
@@ -5264,13 +5204,13 @@
         <v>2045285</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>311</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5278,13 @@
         <v>17976</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -5353,13 +5293,13 @@
         <v>23136</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -5368,13 +5308,13 @@
         <v>41112</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>336</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,13 +5329,13 @@
         <v>709725</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="H14" s="7">
         <v>1008</v>
@@ -5404,13 +5344,13 @@
         <v>850610</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="M14" s="7">
         <v>1667</v>
@@ -5419,13 +5359,13 @@
         <v>1560335</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>343</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5433,13 @@
         <v>26007</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>72</v>
+        <v>327</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="H16" s="7">
         <v>63</v>
@@ -5508,13 +5448,13 @@
         <v>51055</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>346</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="M16" s="7">
         <v>91</v>
@@ -5523,13 +5463,13 @@
         <v>77061</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>86</v>
+        <v>332</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5484,13 @@
         <v>939396</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>336</v>
       </c>
       <c r="H17" s="7">
         <v>1496</v>
@@ -5559,13 +5499,13 @@
         <v>1095248</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>353</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="M17" s="7">
         <v>2474</v>
@@ -5574,13 +5514,13 @@
         <v>2034645</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5588,13 @@
         <v>78595</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>358</v>
+        <v>183</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>360</v>
+        <v>54</v>
       </c>
       <c r="H19" s="7">
         <v>179</v>
@@ -5663,13 +5603,13 @@
         <v>122576</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>361</v>
+        <v>171</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="M19" s="7">
         <v>261</v>
@@ -5678,13 +5618,13 @@
         <v>201171</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>201</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5639,13 @@
         <v>3305042</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>192</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>62</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="H20" s="7">
         <v>5180</v>
@@ -5714,13 +5654,13 @@
         <v>3680286</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>367</v>
+        <v>176</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="M20" s="7">
         <v>8472</v>
@@ -5729,13 +5669,13 @@
         <v>6985327</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>208</v>
+        <v>348</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,7 +5731,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22649345-F213-42DE-BEB4-1DC3F27A424C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC9AD8DE-BB18-40D7-99C8-88DFB4381BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2B9530E3-6B24-4417-BA06-60AE3572B97A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9078DAF7-66F6-43A7-B50A-D19DCF7479D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="356">
   <si>
     <t>Población que ha consumido antibióticos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -86,13 +86,13 @@
     <t>1,52%</t>
   </si>
   <si>
-    <t>4,59%</t>
+    <t>5,13%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>2,62%</t>
+    <t>2,63%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,13 +110,13 @@
     <t>98,48%</t>
   </si>
   <si>
-    <t>95,41%</t>
+    <t>94,87%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>97,38%</t>
+    <t>97,37%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -125,970 +125,988 @@
     <t>1,32%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>96,99%</t>
   </si>
   <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
     <t>96,78%</t>
   </si>
   <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
   </si>
   <si>
     <t>97,2%</t>
   </si>
   <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>96,72%</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B13AD3-7F4F-4BD8-BF56-599314F4B7E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA788591-1AAD-4B48-861E-D4E6C6F80117}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2244,13 +2262,13 @@
         <v>16993</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -2259,13 +2277,13 @@
         <v>19413</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -2274,13 +2292,13 @@
         <v>36406</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,13 +2313,13 @@
         <v>925229</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>978</v>
@@ -2310,13 +2328,13 @@
         <v>1019199</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="M17" s="7">
         <v>1953</v>
@@ -2325,13 +2343,13 @@
         <v>1944428</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2417,13 @@
         <v>58663</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>74</v>
@@ -2414,13 +2432,13 @@
         <v>74790</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M19" s="7">
         <v>133</v>
@@ -2429,13 +2447,13 @@
         <v>133452</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,13 +2468,13 @@
         <v>3216862</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H20" s="7">
         <v>3223</v>
@@ -2465,28 +2483,28 @@
         <v>3304408</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>6377</v>
       </c>
       <c r="N20" s="7">
-        <v>6521271</v>
+        <v>6521270</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,7 +2546,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -2542,7 +2560,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2563,7 +2581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920A7F69-A35A-4DD6-A616-8ABBA6C34095}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57ECAB62-DE60-480A-936A-28E7BB996579}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2580,7 +2598,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2687,13 +2705,13 @@
         <v>2733</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2702,13 +2720,13 @@
         <v>1979</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2717,13 +2735,13 @@
         <v>4712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,10 +2756,10 @@
         <v>112217</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>76</v>
@@ -2753,10 +2771,10 @@
         <v>109926</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2768,13 +2786,13 @@
         <v>222143</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2860,13 @@
         <v>23204</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -2857,13 +2875,13 @@
         <v>18269</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -2872,13 +2890,13 @@
         <v>41473</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2911,13 @@
         <v>562610</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H8" s="7">
         <v>531</v>
@@ -2908,28 +2926,28 @@
         <v>563177</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="M8" s="7">
         <v>1062</v>
       </c>
       <c r="N8" s="7">
-        <v>1125787</v>
+        <v>1125786</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,7 +2989,7 @@
         <v>1098</v>
       </c>
       <c r="N9" s="7">
-        <v>1167260</v>
+        <v>1167259</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>21</v>
@@ -2997,13 +3015,13 @@
         <v>31418</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -3012,13 +3030,13 @@
         <v>42955</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>64</v>
@@ -3027,13 +3045,13 @@
         <v>74373</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,28 +3066,28 @@
         <v>984338</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="H11" s="7">
         <v>898</v>
       </c>
       <c r="I11" s="7">
-        <v>984864</v>
+        <v>984865</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M11" s="7">
         <v>1807</v>
@@ -3078,13 +3096,13 @@
         <v>1969202</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,7 +3129,7 @@
         <v>936</v>
       </c>
       <c r="I12" s="7">
-        <v>1027819</v>
+        <v>1027820</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>21</v>
@@ -3152,13 +3170,13 @@
         <v>21066</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3167,13 +3185,13 @@
         <v>11291</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -3182,13 +3200,13 @@
         <v>32356</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,13 +3221,13 @@
         <v>735472</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="H14" s="7">
         <v>694</v>
@@ -3218,13 +3236,13 @@
         <v>764992</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="M14" s="7">
         <v>1363</v>
@@ -3233,13 +3251,13 @@
         <v>1500465</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,13 +3325,13 @@
         <v>18384</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -3322,10 +3340,10 @@
         <v>26824</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>68</v>
@@ -3337,13 +3355,13 @@
         <v>45208</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3376,13 @@
         <v>924662</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
         <v>974</v>
@@ -3373,13 +3391,13 @@
         <v>1021939</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M17" s="7">
         <v>1864</v>
@@ -3388,13 +3406,13 @@
         <v>1946601</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,13 +3480,13 @@
         <v>96805</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -3477,13 +3495,13 @@
         <v>101318</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="M19" s="7">
         <v>176</v>
@@ -3492,13 +3510,13 @@
         <v>198123</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3531,13 @@
         <v>3319297</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="H20" s="7">
         <v>3194</v>
@@ -3528,28 +3546,28 @@
         <v>3444899</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="M20" s="7">
         <v>6311</v>
       </c>
       <c r="N20" s="7">
-        <v>6764196</v>
+        <v>6764197</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>195</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,7 +3609,7 @@
         <v>6487</v>
       </c>
       <c r="N21" s="7">
-        <v>6962319</v>
+        <v>6962320</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -3605,7 +3623,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3626,7 +3644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED3AC3E-4696-418C-9E0A-D54660666108}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F6C180-A4D3-4EE9-860E-AD6C186B2CCF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3643,7 +3661,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3750,13 +3768,13 @@
         <v>4935</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3765,13 +3783,13 @@
         <v>962</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>199</v>
+        <v>31</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3780,13 +3798,13 @@
         <v>5897</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3819,13 @@
         <v>111611</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
         <v>114</v>
@@ -3816,10 +3834,10 @@
         <v>112398</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3831,13 +3849,13 @@
         <v>224009</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,13 +3923,13 @@
         <v>7292</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -3920,13 +3938,13 @@
         <v>14068</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -3938,10 +3956,10 @@
         <v>49</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,13 +3974,13 @@
         <v>550962</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="H8" s="7">
         <v>537</v>
@@ -3971,13 +3989,13 @@
         <v>545411</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="M8" s="7">
         <v>1070</v>
@@ -3989,10 +4007,10 @@
         <v>58</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,13 +4078,13 @@
         <v>19715</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -4075,13 +4093,13 @@
         <v>23014</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -4090,13 +4108,13 @@
         <v>42729</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4129,13 @@
         <v>1002716</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>230</v>
+        <v>162</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
         <v>955</v>
@@ -4126,13 +4144,13 @@
         <v>1019899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="M11" s="7">
         <v>1887</v>
@@ -4141,13 +4159,13 @@
         <v>2022615</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,10 +4236,10 @@
         <v>27</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -4233,10 +4251,10 @@
         <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -4245,13 +4263,13 @@
         <v>24960</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>241</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,10 +4287,10 @@
         <v>36</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7">
         <v>724</v>
@@ -4284,10 +4302,10 @@
         <v>58</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
         <v>1411</v>
@@ -4296,13 +4314,13 @@
         <v>1519603</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>247</v>
+        <v>125</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,13 +4388,13 @@
         <v>27188</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -4385,13 +4403,13 @@
         <v>26964</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>252</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -4400,13 +4418,13 @@
         <v>54152</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>256</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,13 +4439,13 @@
         <v>910379</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
         <v>935</v>
@@ -4436,13 +4454,13 @@
         <v>1016815</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>261</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>1841</v>
@@ -4451,13 +4469,13 @@
         <v>1927194</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>263</v>
+        <v>145</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,13 +4543,13 @@
         <v>69134</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -4540,13 +4558,13 @@
         <v>79964</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="M19" s="7">
         <v>138</v>
@@ -4555,13 +4573,13 @@
         <v>149098</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>158</v>
+        <v>272</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>269</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,13 +4594,13 @@
         <v>3325216</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H20" s="7">
         <v>3265</v>
@@ -4591,13 +4609,13 @@
         <v>3464578</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>6431</v>
@@ -4606,13 +4624,13 @@
         <v>6789794</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>274</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>165</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,7 +4686,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4689,7 +4707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD03D53-DC41-4BF0-B0A9-934F9E3FCCE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C553A60F-3954-43A0-9B54-A3362A008597}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4706,7 +4724,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4813,13 +4831,13 @@
         <v>3315</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4828,13 +4846,13 @@
         <v>3433</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>266</v>
+        <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -4843,13 +4861,13 @@
         <v>6748</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,7 +4882,7 @@
         <v>98667</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>284</v>
@@ -4879,13 +4897,13 @@
         <v>126943</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>270</v>
+        <v>25</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="M5" s="7">
         <v>349</v>
@@ -4894,13 +4912,13 @@
         <v>225610</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,13 +4986,13 @@
         <v>9444</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>172</v>
+        <v>288</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5001,10 +5019,10 @@
         <v>292</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>99</v>
+        <v>293</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5037,13 @@
         <v>539858</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>177</v>
+        <v>294</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="H8" s="7">
         <v>971</v>
@@ -5037,10 +5055,10 @@
         <v>61</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M8" s="7">
         <v>1570</v>
@@ -5049,13 +5067,13 @@
         <v>1119451</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>297</v>
+        <v>165</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>108</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,13 +5141,13 @@
         <v>21854</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -5138,13 +5156,13 @@
         <v>31583</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>225</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -5153,13 +5171,13 @@
         <v>53437</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>303</v>
+        <v>244</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,13 +5192,13 @@
         <v>1017394</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H11" s="7">
         <v>1470</v>
@@ -5189,13 +5207,13 @@
         <v>1027891</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>230</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M11" s="7">
         <v>2412</v>
@@ -5204,7 +5222,7 @@
         <v>2045285</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>311</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>312</v>
@@ -5278,13 +5296,13 @@
         <v>17976</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -5293,13 +5311,13 @@
         <v>23136</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -5308,13 +5326,13 @@
         <v>41112</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>118</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5347,13 @@
         <v>709725</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>1008</v>
@@ -5344,13 +5362,13 @@
         <v>850610</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>324</v>
+        <v>57</v>
       </c>
       <c r="M14" s="7">
         <v>1667</v>
@@ -5359,13 +5377,13 @@
         <v>1560335</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>125</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,13 +5451,13 @@
         <v>26007</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H16" s="7">
         <v>63</v>
@@ -5448,13 +5466,13 @@
         <v>51055</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>327</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M16" s="7">
         <v>91</v>
@@ -5463,13 +5481,13 @@
         <v>77061</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5502,13 @@
         <v>939396</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H17" s="7">
         <v>1496</v>
@@ -5499,7 +5517,7 @@
         <v>1095248</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>336</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>337</v>
@@ -5588,13 +5606,13 @@
         <v>78595</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>183</v>
+        <v>342</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>342</v>
+        <v>13</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>54</v>
+        <v>343</v>
       </c>
       <c r="H19" s="7">
         <v>179</v>
@@ -5603,13 +5621,13 @@
         <v>122576</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>171</v>
+        <v>344</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="M19" s="7">
         <v>261</v>
@@ -5618,13 +5636,13 @@
         <v>201171</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>344</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,16 +5654,16 @@
         <v>3292</v>
       </c>
       <c r="D20" s="7">
-        <v>3305042</v>
+        <v>3305041</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>192</v>
+        <v>349</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>62</v>
+        <v>350</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>346</v>
+        <v>20</v>
       </c>
       <c r="H20" s="7">
         <v>5180</v>
@@ -5654,13 +5672,13 @@
         <v>3680286</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>176</v>
+        <v>351</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="M20" s="7">
         <v>8472</v>
@@ -5669,13 +5687,13 @@
         <v>6985327</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>349</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,7 +5705,7 @@
         <v>3374</v>
       </c>
       <c r="D21" s="7">
-        <v>3383637</v>
+        <v>3383636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -5731,7 +5749,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC9AD8DE-BB18-40D7-99C8-88DFB4381BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17A61996-3D7A-479A-AF3A-DEBC950D6912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9078DAF7-66F6-43A7-B50A-D19DCF7479D7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{455D733C-2825-4631-B8FF-2022695BC394}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="294">
   <si>
     <t>Población que ha consumido antibióticos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,1045 +68,859 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
+    <t>97,8%</t>
   </si>
 </sst>
 </file>
@@ -1518,8 +1332,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA788591-1AAD-4B48-861E-D4E6C6F80117}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A03481F-F730-4D78-88FC-73CF1198D6C9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1636,10 +1450,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>7611</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1651,85 +1465,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>1710</v>
+        <v>11544</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>1710</v>
+        <v>19156</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>105</v>
+        <v>674</v>
       </c>
       <c r="D5" s="7">
-        <v>115358</v>
+        <v>685383</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>126</v>
+        <v>683</v>
       </c>
       <c r="I5" s="7">
-        <v>111045</v>
+        <v>676807</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>231</v>
+        <v>1357</v>
       </c>
       <c r="N5" s="7">
-        <v>226403</v>
+        <v>1362189</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1738,153 +1552,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>682</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>692994</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381345</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>7611</v>
+        <v>24929</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>9834</v>
+        <v>18457</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N7" s="7">
-        <v>17446</v>
+        <v>43386</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>569</v>
+        <v>874</v>
       </c>
       <c r="D8" s="7">
-        <v>570025</v>
+        <v>936871</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>557</v>
+        <v>892</v>
       </c>
       <c r="I8" s="7">
-        <v>565762</v>
+        <v>949936</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1126</v>
+        <v>1766</v>
       </c>
       <c r="N8" s="7">
-        <v>1135786</v>
+        <v>1886807</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1893,153 +1707,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>577</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>577636</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1153232</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>24929</v>
+        <v>9129</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7">
-        <v>18457</v>
+        <v>25376</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>43386</v>
+        <v>34504</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>874</v>
+        <v>631</v>
       </c>
       <c r="D11" s="7">
-        <v>936871</v>
+        <v>669380</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>892</v>
+        <v>670</v>
       </c>
       <c r="I11" s="7">
-        <v>949936</v>
+        <v>658465</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1766</v>
+        <v>1301</v>
       </c>
       <c r="N11" s="7">
-        <v>1886807</v>
+        <v>1327846</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2048,153 +1862,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>9129</v>
+        <v>16993</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>25376</v>
+        <v>19413</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N13" s="7">
-        <v>34504</v>
+        <v>36406</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>631</v>
+        <v>975</v>
       </c>
       <c r="D14" s="7">
-        <v>669380</v>
+        <v>925229</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>670</v>
+        <v>978</v>
       </c>
       <c r="I14" s="7">
-        <v>658465</v>
+        <v>1019199</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="M14" s="7">
-        <v>1301</v>
+        <v>1953</v>
       </c>
       <c r="N14" s="7">
-        <v>1327846</v>
+        <v>1944428</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2203,153 +2017,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D16" s="7">
-        <v>16993</v>
+        <v>58663</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="I16" s="7">
-        <v>19413</v>
+        <v>74790</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="N16" s="7">
-        <v>36406</v>
+        <v>133452</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>975</v>
+        <v>3154</v>
       </c>
       <c r="D17" s="7">
-        <v>925229</v>
+        <v>3216862</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
-        <v>978</v>
+        <v>3223</v>
       </c>
       <c r="I17" s="7">
-        <v>1019199</v>
+        <v>3304407</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
-        <v>1953</v>
+        <v>6377</v>
       </c>
       <c r="N17" s="7">
-        <v>1944428</v>
+        <v>6521270</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,217 +2172,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3275525</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6510</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6654722</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>59</v>
-      </c>
-      <c r="D19" s="7">
-        <v>58663</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="A19" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="7">
-        <v>74</v>
-      </c>
-      <c r="I19" s="7">
-        <v>74790</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M19" s="7">
-        <v>133</v>
-      </c>
-      <c r="N19" s="7">
-        <v>133452</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3154</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3216862</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3223</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3304408</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6377</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6521270</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275525</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6510</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6654722</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>116</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2581,8 +2239,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57ECAB62-DE60-480A-936A-28E7BB996579}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474FD1A5-F7E7-4512-8EF7-53350E3A9D1C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2598,7 +2256,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2699,100 +2357,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>2733</v>
+        <v>25937</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I4" s="7">
-        <v>1979</v>
+        <v>20248</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="N4" s="7">
-        <v>4712</v>
+        <v>46185</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>649</v>
+      </c>
+      <c r="D5" s="7">
+        <v>674827</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="7">
+        <v>628</v>
+      </c>
+      <c r="I5" s="7">
+        <v>673103</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1277</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1347930</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="7">
-        <v>112217</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="7">
-        <v>97</v>
-      </c>
-      <c r="I5" s="7">
-        <v>109926</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>215</v>
-      </c>
-      <c r="N5" s="7">
-        <v>222143</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,153 +2459,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>121</v>
+        <v>671</v>
       </c>
       <c r="D6" s="7">
-        <v>114950</v>
+        <v>700764</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>647</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>693351</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>220</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>226855</v>
+        <v>1394115</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>23204</v>
+        <v>31418</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I7" s="7">
-        <v>18269</v>
+        <v>42955</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="N7" s="7">
-        <v>41473</v>
+        <v>74373</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>531</v>
+        <v>909</v>
       </c>
       <c r="D8" s="7">
-        <v>562610</v>
+        <v>984338</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
-        <v>531</v>
+        <v>898</v>
       </c>
       <c r="I8" s="7">
-        <v>563177</v>
+        <v>984864</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
-        <v>1062</v>
+        <v>1807</v>
       </c>
       <c r="N8" s="7">
-        <v>1125786</v>
+        <v>1969202</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,153 +2614,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>550</v>
+        <v>935</v>
       </c>
       <c r="D9" s="7">
-        <v>585814</v>
+        <v>1015756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>548</v>
+        <v>936</v>
       </c>
       <c r="I9" s="7">
-        <v>581446</v>
+        <v>1027819</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1098</v>
+        <v>1871</v>
       </c>
       <c r="N9" s="7">
-        <v>1167259</v>
+        <v>2043575</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>31418</v>
+        <v>21066</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>42955</v>
+        <v>11291</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N10" s="7">
-        <v>74373</v>
+        <v>32356</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>909</v>
+        <v>669</v>
       </c>
       <c r="D11" s="7">
-        <v>984338</v>
+        <v>735472</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="H11" s="7">
-        <v>898</v>
+        <v>694</v>
       </c>
       <c r="I11" s="7">
-        <v>984865</v>
+        <v>764992</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="M11" s="7">
-        <v>1807</v>
+        <v>1363</v>
       </c>
       <c r="N11" s="7">
-        <v>1969202</v>
+        <v>1500465</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,153 +2769,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>935</v>
+        <v>688</v>
       </c>
       <c r="D12" s="7">
-        <v>1015756</v>
+        <v>756538</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>936</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1027820</v>
+        <v>776283</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1871</v>
+        <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>2043575</v>
+        <v>1532821</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>21066</v>
+        <v>18384</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>11291</v>
+        <v>26824</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>54</v>
       </c>
       <c r="M13" s="7">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N13" s="7">
-        <v>32356</v>
+        <v>45208</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>669</v>
+        <v>890</v>
       </c>
       <c r="D14" s="7">
-        <v>735472</v>
+        <v>924662</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="H14" s="7">
-        <v>694</v>
+        <v>974</v>
       </c>
       <c r="I14" s="7">
-        <v>764992</v>
+        <v>1021939</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="M14" s="7">
-        <v>1363</v>
+        <v>1864</v>
       </c>
       <c r="N14" s="7">
-        <v>1500465</v>
+        <v>1946601</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,153 +2924,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>688</v>
+        <v>906</v>
       </c>
       <c r="D15" s="7">
-        <v>756538</v>
+        <v>943046</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="7">
-        <v>776283</v>
+        <v>1048763</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1392</v>
+        <v>1906</v>
       </c>
       <c r="N15" s="7">
-        <v>1532821</v>
+        <v>1991809</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="D16" s="7">
-        <v>18384</v>
+        <v>96805</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="H16" s="7">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="I16" s="7">
-        <v>26824</v>
+        <v>101318</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="M16" s="7">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="N16" s="7">
-        <v>45208</v>
+        <v>198123</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>890</v>
+        <v>3117</v>
       </c>
       <c r="D17" s="7">
-        <v>924662</v>
+        <v>3319298</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="H17" s="7">
-        <v>974</v>
+        <v>3194</v>
       </c>
       <c r="I17" s="7">
-        <v>1021939</v>
+        <v>3444899</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M17" s="7">
+        <v>6311</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6764197</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="M17" s="7">
-        <v>1864</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1946601</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="P17" s="7" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,217 +3079,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>906</v>
+        <v>3200</v>
       </c>
       <c r="D18" s="7">
-        <v>943046</v>
+        <v>3416103</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1000</v>
+        <v>3287</v>
       </c>
       <c r="I18" s="7">
-        <v>1048763</v>
+        <v>3546217</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1906</v>
+        <v>6487</v>
       </c>
       <c r="N18" s="7">
-        <v>1991809</v>
+        <v>6962320</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>83</v>
-      </c>
-      <c r="D19" s="7">
-        <v>96805</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H19" s="7">
-        <v>93</v>
-      </c>
-      <c r="I19" s="7">
-        <v>101318</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M19" s="7">
-        <v>176</v>
-      </c>
-      <c r="N19" s="7">
-        <v>198123</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3117</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3319297</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3194</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3444899</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6311</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6764197</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3200</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3416102</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3287</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3546217</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6487</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6962320</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>116</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3644,8 +3146,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F6C180-A4D3-4EE9-860E-AD6C186B2CCF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8989752-E7C1-4589-A7F6-1E5B39950791}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3661,7 +3163,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3762,100 +3264,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>4935</v>
+        <v>12227</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>962</v>
+        <v>15030</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>5897</v>
+        <v>27256</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>108</v>
+        <v>641</v>
       </c>
       <c r="D5" s="7">
-        <v>111611</v>
+        <v>662573</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="H5" s="7">
-        <v>114</v>
+        <v>651</v>
       </c>
       <c r="I5" s="7">
-        <v>112398</v>
+        <v>657809</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>41</v>
+        <v>191</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="M5" s="7">
-        <v>222</v>
+        <v>1292</v>
       </c>
       <c r="N5" s="7">
-        <v>224009</v>
+        <v>1320383</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,153 +3366,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>7292</v>
+        <v>19715</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I7" s="7">
-        <v>14068</v>
+        <v>23014</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>219</v>
+        <v>89</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="M7" s="7">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="N7" s="7">
-        <v>21360</v>
+        <v>42729</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>533</v>
+        <v>932</v>
       </c>
       <c r="D8" s="7">
-        <v>550962</v>
+        <v>1002716</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="H8" s="7">
-        <v>537</v>
+        <v>955</v>
       </c>
       <c r="I8" s="7">
-        <v>545411</v>
+        <v>1019899</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>226</v>
+        <v>97</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
-        <v>1070</v>
+        <v>1887</v>
       </c>
       <c r="N8" s="7">
-        <v>1096373</v>
+        <v>2022615</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>58</v>
+        <v>208</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,153 +3521,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>19715</v>
+        <v>10004</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="H10" s="7">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>23014</v>
+        <v>14956</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>234</v>
+        <v>104</v>
       </c>
       <c r="M10" s="7">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="N10" s="7">
-        <v>42729</v>
+        <v>24960</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>932</v>
+        <v>687</v>
       </c>
       <c r="D11" s="7">
-        <v>1002716</v>
+        <v>749548</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="H11" s="7">
-        <v>955</v>
+        <v>724</v>
       </c>
       <c r="I11" s="7">
-        <v>1019899</v>
+        <v>770055</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>239</v>
+        <v>112</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="M11" s="7">
-        <v>1887</v>
+        <v>1411</v>
       </c>
       <c r="N11" s="7">
-        <v>2022615</v>
+        <v>1519603</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>22</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,153 +3676,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>10004</v>
+        <v>27188</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>27</v>
+        <v>225</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>243</v>
+        <v>154</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>14956</v>
+        <v>26964</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>245</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="M13" s="7">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="N13" s="7">
-        <v>24960</v>
+        <v>54152</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>687</v>
+        <v>906</v>
       </c>
       <c r="D14" s="7">
-        <v>749548</v>
+        <v>910379</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="H14" s="7">
-        <v>724</v>
+        <v>935</v>
       </c>
       <c r="I14" s="7">
-        <v>770055</v>
+        <v>1016815</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>252</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
-        <v>1411</v>
+        <v>1841</v>
       </c>
       <c r="N14" s="7">
-        <v>1519603</v>
+        <v>1927194</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>125</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>254</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,153 +3831,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D16" s="7">
-        <v>27188</v>
+        <v>69134</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="I16" s="7">
-        <v>26964</v>
+        <v>79964</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>258</v>
+        <v>165</v>
       </c>
       <c r="M16" s="7">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="N16" s="7">
-        <v>54152</v>
+        <v>149098</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>906</v>
+        <v>3166</v>
       </c>
       <c r="D17" s="7">
-        <v>910379</v>
+        <v>3325216</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="H17" s="7">
-        <v>935</v>
+        <v>3265</v>
       </c>
       <c r="I17" s="7">
-        <v>1016815</v>
+        <v>3464578</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>264</v>
+        <v>173</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
-        <v>1841</v>
+        <v>6431</v>
       </c>
       <c r="N17" s="7">
-        <v>1927194</v>
+        <v>6789794</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,217 +3986,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>65</v>
-      </c>
-      <c r="D19" s="7">
-        <v>69134</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H19" s="7">
-        <v>73</v>
-      </c>
-      <c r="I19" s="7">
-        <v>79964</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="M19" s="7">
-        <v>138</v>
-      </c>
-      <c r="N19" s="7">
-        <v>149098</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3166</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3325216</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3265</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3464578</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6431</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6789794</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>116</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4707,8 +4053,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C553A60F-3954-43A0-9B54-A3362A008597}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43309E1A-1D55-4267-A055-644D3D1DFC4C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4724,7 +4070,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4825,100 +4171,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>3315</v>
+        <v>12265</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>280</v>
+        <v>155</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I4" s="7">
-        <v>3433</v>
+        <v>15905</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>50</v>
+        <v>215</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="N4" s="7">
-        <v>6748</v>
+        <v>28169</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>282</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>283</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>114</v>
+        <v>713</v>
       </c>
       <c r="D5" s="7">
-        <v>98667</v>
+        <v>622686</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>285</v>
+        <v>160</v>
       </c>
       <c r="H5" s="7">
-        <v>235</v>
+        <v>1206</v>
       </c>
       <c r="I5" s="7">
-        <v>126943</v>
+        <v>659517</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>60</v>
+        <v>222</v>
       </c>
       <c r="M5" s="7">
-        <v>349</v>
+        <v>1919</v>
       </c>
       <c r="N5" s="7">
-        <v>225610</v>
+        <v>1282204</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>287</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,153 +4273,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>634951</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>242</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130376</v>
+        <v>675422</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1967</v>
       </c>
       <c r="N6" s="7">
-        <v>232358</v>
+        <v>1310373</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>9444</v>
+        <v>20960</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>288</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I7" s="7">
-        <v>13369</v>
+        <v>29190</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>52</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="N7" s="7">
-        <v>22813</v>
+        <v>50150</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>292</v>
+        <v>105</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>599</v>
+        <v>942</v>
       </c>
       <c r="D8" s="7">
-        <v>539858</v>
+        <v>1171904</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>148</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
-        <v>971</v>
+        <v>1470</v>
       </c>
       <c r="I8" s="7">
-        <v>579593</v>
+        <v>928916</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>61</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
-        <v>1570</v>
+        <v>2412</v>
       </c>
       <c r="N8" s="7">
-        <v>1119451</v>
+        <v>2100821</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>298</v>
+        <v>114</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,153 +4428,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549302</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1142264</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>21854</v>
+        <v>17062</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>301</v>
+        <v>87</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I10" s="7">
-        <v>31583</v>
+        <v>22006</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M10" s="7">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M10" s="7">
-        <v>68</v>
-      </c>
       <c r="N10" s="7">
-        <v>53437</v>
+        <v>39068</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>306</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>942</v>
+        <v>659</v>
       </c>
       <c r="D11" s="7">
-        <v>1017394</v>
+        <v>686622</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>307</v>
+        <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>309</v>
+        <v>96</v>
       </c>
       <c r="H11" s="7">
-        <v>1470</v>
+        <v>1008</v>
       </c>
       <c r="I11" s="7">
-        <v>1027891</v>
+        <v>910794</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="M11" s="7">
-        <v>2412</v>
+        <v>1667</v>
       </c>
       <c r="N11" s="7">
-        <v>2045285</v>
+        <v>1597416</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>312</v>
+        <v>118</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,153 +4583,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>703684</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>932800</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1721</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1636484</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>17976</v>
+        <v>24908</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>274</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>293</v>
+        <v>139</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="H13" s="7">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="I13" s="7">
-        <v>23136</v>
+        <v>44556</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N13" s="7">
-        <v>41112</v>
+        <v>69465</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>317</v>
+        <v>248</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>659</v>
+        <v>978</v>
       </c>
       <c r="D14" s="7">
-        <v>709725</v>
+        <v>901923</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
-        <v>1008</v>
+        <v>1496</v>
       </c>
       <c r="I14" s="7">
-        <v>850610</v>
+        <v>1046818</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>258</v>
       </c>
       <c r="M14" s="7">
-        <v>1667</v>
+        <v>2474</v>
       </c>
       <c r="N14" s="7">
-        <v>1560335</v>
+        <v>1948740</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>322</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,153 +4738,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>727701</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>873746</v>
+        <v>1091374</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1721</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1601447</v>
+        <v>2018205</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="D16" s="7">
-        <v>26007</v>
+        <v>75194</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>324</v>
+        <v>255</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="I16" s="7">
-        <v>51055</v>
+        <v>111657</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>327</v>
+        <v>254</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>328</v>
+        <v>55</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>329</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
-        <v>91</v>
+        <v>261</v>
       </c>
       <c r="N16" s="7">
-        <v>77061</v>
+        <v>186852</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>332</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>978</v>
+        <v>3292</v>
       </c>
       <c r="D17" s="7">
-        <v>939396</v>
+        <v>3383136</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
-        <v>1496</v>
+        <v>5180</v>
       </c>
       <c r="I17" s="7">
-        <v>1095248</v>
+        <v>3546045</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>336</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>337</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>338</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
-        <v>2474</v>
+        <v>8472</v>
       </c>
       <c r="N17" s="7">
-        <v>2034645</v>
+        <v>6929180</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>340</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,217 +4893,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3374</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3458330</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5359</v>
       </c>
       <c r="I18" s="7">
-        <v>1146303</v>
+        <v>3657702</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8733</v>
       </c>
       <c r="N18" s="7">
-        <v>2111706</v>
+        <v>7116032</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>82</v>
-      </c>
-      <c r="D19" s="7">
-        <v>78595</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H19" s="7">
-        <v>179</v>
-      </c>
-      <c r="I19" s="7">
-        <v>122576</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="M19" s="7">
-        <v>261</v>
-      </c>
-      <c r="N19" s="7">
-        <v>201171</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3292</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3305041</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5180</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3680286</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8472</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6985327</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3374</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3383636</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5359</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3802862</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8733</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7186498</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>116</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
